--- a/data til pbi/passasjertall_måned/PassasjererLinje_102022.xlsx
+++ b/data til pbi/passasjertall_måned/PassasjererLinje_102022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arbeidsområde\github\bypakke_grenland\data til pbi\passasjertall_måned\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05E5D66E-D787-4334-8B4E-7D6651B4A172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AED241-B52A-486C-8A53-2C2F1CCFCF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="504" yWindow="492" windowWidth="29784" windowHeight="15804" xr2:uid="{A8EC5414-1AC7-4831-A6ED-0CEA3176F6E9}"/>
+    <workbookView xWindow="1404" yWindow="84" windowWidth="26628" windowHeight="15804" xr2:uid="{A8EC5414-1AC7-4831-A6ED-0CEA3176F6E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A61727-F530-4833-9F1A-EACCF695D775}">
   <dimension ref="A1:E1117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView tabSelected="1" topLeftCell="A1078" workbookViewId="0">
+      <selection activeCell="H1112" sqref="H1112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18582,7 +18582,7 @@
         <v>10</v>
       </c>
       <c r="E1067">
-        <v>1377</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="1068" spans="1:5" x14ac:dyDescent="0.3">
@@ -19432,7 +19432,7 @@
         <v>16</v>
       </c>
       <c r="E1117">
-        <v>4532727</v>
+        <v>4532786</v>
       </c>
     </row>
   </sheetData>
